--- a/POS/public/template_stok.xlsx
+++ b/POS/public/template_stok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oltha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBFB61FA-C38A-4715-9467-26D500D4E93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70F4CA71-44CD-44AE-A0C1-9EF8B723F82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11475" yWindow="2498" windowWidth="7050" windowHeight="9195" xr2:uid="{43A50078-D0C5-47F8-A2F7-BABF38F38083}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>supplier_id</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>stok_jumlah</t>
-  </si>
-  <si>
-    <t>stok_id</t>
   </si>
 </sst>
 </file>
@@ -416,7 +413,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -427,121 +424,104 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="B2">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <v>45811.583333333336</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <v>45811.583333333336</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="B4">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1">
         <v>45811.631944444445</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="B5">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D5" s="1">
         <v>45811.631944444445</v>
       </c>
-      <c r="F5">
+      <c r="E5">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="B6">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="1">
         <v>45811.631944444445</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>12</v>
       </c>
     </row>
